--- a/tut05/output/0501ME13.xlsx
+++ b/tut05/output/0501ME13.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.510204081632653</v>
+        <v>7.51</v>
       </c>
       <c r="C6" t="n">
-        <v>6.931818181818182</v>
+        <v>6.93</v>
       </c>
       <c r="D6" t="n">
-        <v>7.25531914893617</v>
+        <v>7.26</v>
       </c>
       <c r="E6" t="n">
-        <v>7.653061224489796</v>
+        <v>7.65</v>
       </c>
       <c r="F6" t="n">
-        <v>8.086956521739131</v>
+        <v>8.09</v>
       </c>
       <c r="G6" t="n">
-        <v>8.739130434782609</v>
+        <v>8.74</v>
       </c>
       <c r="H6" t="n">
         <v>8.800000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.510204081632653</v>
+        <v>7.51</v>
       </c>
       <c r="C8" t="n">
-        <v>7.236559139784946</v>
+        <v>7.24</v>
       </c>
       <c r="D8" t="n">
-        <v>7.242857142857143</v>
+        <v>7.24</v>
       </c>
       <c r="E8" t="n">
-        <v>7.349206349206349</v>
+        <v>7.35</v>
       </c>
       <c r="F8" t="n">
-        <v>7.493617021276596</v>
+        <v>7.49</v>
       </c>
       <c r="G8" t="n">
-        <v>7.697508896797153</v>
+        <v>7.7</v>
       </c>
       <c r="H8" t="n">
-        <v>7.834890965732087</v>
+        <v>7.83</v>
       </c>
       <c r="I8" t="n">
-        <v>7.908587257617729</v>
+        <v>7.91</v>
       </c>
     </row>
   </sheetData>
